--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\450_QUESTIONS_CHALLENGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBD38F-16F5-44C0-AA19-6A316F5907E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960BC9C-1C2E-448A-87CB-F07DCEDC4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D442" sqref="D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="4" t="s">
-        <v>464</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="21">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="4" t="s">
-        <v>464</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="21">
@@ -7298,8 +7298,8 @@
         <v>418</v>
       </c>
       <c r="C436" s="6"/>
-      <c r="D436" s="11" t="s">
-        <v>464</v>
+      <c r="D436" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="21">
@@ -7370,8 +7370,8 @@
         <v>424</v>
       </c>
       <c r="C442" s="6"/>
-      <c r="D442" s="4" t="s">
-        <v>4</v>
+      <c r="D442" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="21">
@@ -7418,8 +7418,8 @@
         <v>428</v>
       </c>
       <c r="C446" s="6"/>
-      <c r="D446" s="4" t="s">
-        <v>4</v>
+      <c r="D446" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="21">
